--- a/Project Tracking_G1.xlsx
+++ b/Project Tracking_G1.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="64">
   <si>
     <t>Total Project Tracking</t>
   </si>
@@ -295,190 +295,157 @@
     <t>Update Details</t>
   </si>
   <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>HomePage to view many kind of television by model. On this screen have link for user to add to cart, sign in and sign up.</t>
+  </si>
+  <si>
+    <t>Nhân</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>II.2</t>
+  </si>
+  <si>
+    <t>II.3</t>
+  </si>
+  <si>
+    <t>Finding and Code Template</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>This is screen which allows the user to enter email or username &amp; password to login; on this page, there are also links for user to register new information or reset the password for the case s/he forget it.</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>II.1</t>
+  </si>
+  <si>
+    <t>User Register</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>This is screen which allows the user to enter email then when user submit, user can receive a email to have user know system reset user's password to a random</t>
+  </si>
+  <si>
+    <t>II.5</t>
+  </si>
+  <si>
+    <t>HomePage to view many kind of television by model. On this screen have link for user to add to cart, sign in, sign up and search product.</t>
+  </si>
+  <si>
+    <t>Chiến</t>
+  </si>
+  <si>
+    <t>Add list products by model to HomePage function</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Add Login with Google account function</t>
+  </si>
+  <si>
+    <t>Search Product</t>
+  </si>
+  <si>
+    <t>A screen can display list of all televisons user searching</t>
+  </si>
+  <si>
+    <t>Add pagination function</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>This is a screen which allows the user to view, change and update new information of profile. In this page, user update FirstName, Lastname, Email, Phone, Address, Gender, D.O.B, Avatar.</t>
+  </si>
+  <si>
+    <t>Iteration Tracking - Iteration 1</t>
+  </si>
+  <si>
+    <t>Screen / Function</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>SDS</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Iteration Tracking - Iteration 2</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>This is short descripiton for the screen/function (2-3 sentences)</t>
+  </si>
+  <si>
+    <t>Product Manage</t>
+  </si>
+  <si>
+    <t>This is screen which allows Import staff to edit price, amount, add new televison in to warehouse</t>
+  </si>
+  <si>
+    <t>User Manage</t>
+  </si>
+  <si>
+    <t>This is screen which allows Admin to edit user in to database</t>
+  </si>
+  <si>
+    <t>This is screen which allows User View price, amount of total choosen product and buy</t>
+  </si>
+  <si>
+    <t>Write feedback</t>
+  </si>
+  <si>
+    <t>This is screen which allows User bought product can write feedback</t>
+  </si>
+  <si>
+    <t>Iteration Tracking - Iteration 4</t>
+  </si>
+  <si>
+    <t>Information in the columns A-F must be provided as the planned scope for the iteration</t>
+  </si>
+  <si>
+    <t>Columns B-D are copied from the sheet Product</t>
+  </si>
+  <si>
+    <t>Columns E-J are updated/filled by the end of the iteration</t>
+  </si>
+  <si>
     <t>Screen/Function Name1</t>
   </si>
   <si>
     <t>Feature Name1</t>
   </si>
   <si>
-    <t>Admin, Manager</t>
-  </si>
-  <si>
-    <t>This is short descripiton for the screen/function (2-3 sentences)</t>
-  </si>
-  <si>
     <t>Tuấn Hà</t>
   </si>
   <si>
-    <t>iter1</t>
-  </si>
-  <si>
-    <t>iter2</t>
+    <t>III.5</t>
   </si>
   <si>
     <t>Screen/Function Name2</t>
   </si>
   <si>
-    <t>Feature Name2</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Tử Vinh</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Screen/Function Name3</t>
-  </si>
-  <si>
-    <t>Doing</t>
-  </si>
-  <si>
-    <t>iter3</t>
-  </si>
-  <si>
-    <t>User Login</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>This is a pop-up screen which allows the user to enter email &amp; password to login; on this page, there are also links for user to register new information or reset the password for the case s/he forget it</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>iter4</t>
-  </si>
-  <si>
-    <t>Iteration Tracking - Iteration 1</t>
-  </si>
-  <si>
-    <t>Screen / Function</t>
-  </si>
-  <si>
-    <t>SRS</t>
-  </si>
-  <si>
-    <t>SDS</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>HomePage to view many kind of television by model. On this screen have link for user to add to cart, sign in and sign up.</t>
-  </si>
-  <si>
-    <t>Nhân</t>
-  </si>
-  <si>
-    <t>II.2</t>
-  </si>
-  <si>
-    <t>II.3</t>
-  </si>
-  <si>
-    <t>Finding and Code Template</t>
-  </si>
-  <si>
-    <t>This is screen which allows the user to enter email or username &amp; password to login; on this page, there are also links for user to register new information or reset the password for the case s/he forget it.</t>
-  </si>
-  <si>
-    <t>Đức</t>
-  </si>
-  <si>
-    <t>II.1</t>
-  </si>
-  <si>
-    <t>User Register</t>
-  </si>
-  <si>
-    <t>Forgot Password</t>
-  </si>
-  <si>
-    <t>This is screen which allows the user to enter email then when user submit, user can receive a email to have user know system reset user's password to a random</t>
-  </si>
-  <si>
-    <t>II.5</t>
-  </si>
-  <si>
-    <t>Iteration Tracking - Iteration 2</t>
-  </si>
-  <si>
-    <t>HomePage to view many kind of television by model. On this screen have link for user to add to cart, sign in, sign up and search product.</t>
-  </si>
-  <si>
-    <t>Chiến</t>
-  </si>
-  <si>
-    <t>Add list products by model to HomePage function</t>
-  </si>
-  <si>
-    <t>Add Login with Google account function</t>
-  </si>
-  <si>
-    <t>Search Product</t>
-  </si>
-  <si>
-    <t>A screen can display list of all televisons user searching</t>
-  </si>
-  <si>
-    <t>Add pagination function</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>This is a screen which allows the user to view, change and update new information of profile. In this page, user update FirstName, Lastname, Email, Phone, Address, Gender, D.O.B, Avatar.</t>
-  </si>
-  <si>
-    <t>Iteration Tracking - Iteration 3</t>
-  </si>
-  <si>
-    <t>Add to Cart</t>
-  </si>
-  <si>
-    <t>III.5</t>
-  </si>
-  <si>
-    <t>Product Manage</t>
-  </si>
-  <si>
-    <t>This is screen which allows Import staff to edit price, amount, add new televison in to warehouse</t>
-  </si>
-  <si>
-    <t>User Manage</t>
-  </si>
-  <si>
-    <t>This is screen which allows Admin to edit user in to database</t>
-  </si>
-  <si>
-    <t>This is screen which allows User View price, amount of total choosen product and buy</t>
-  </si>
-  <si>
-    <t>Iteration Tracking - Iteration 4</t>
-  </si>
-  <si>
-    <t>Information in the columns A-F must be provided as the planned scope for the iteration</t>
-  </si>
-  <si>
-    <t>Columns B-D are copied from the sheet Product</t>
-  </si>
-  <si>
-    <t>Columns E-J are updated/filled by the end of the iteration</t>
   </si>
   <si>
     <t>III.4</t>
@@ -490,11 +457,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -540,6 +507,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -547,9 +521,64 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -561,9 +590,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,8 +603,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,41 +650,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,68 +673,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,6 +688,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -744,181 +736,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,16 +967,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -994,7 +1010,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,40 +1030,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1075,155 +1067,155 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="33" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1264,44 +1256,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="33" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="33" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1567,30 +1592,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.3333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="50.6666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.83333333333333" style="2" customWidth="1"/>
-    <col min="8" max="9" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.9074074074074" style="2" customWidth="1"/>
     <col min="10" max="10" width="45.5" style="2" customWidth="1"/>
     <col min="11" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1631,146 +1657,293 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="26.4" spans="1:10">
-      <c r="A4" s="8">
+    <row r="4" ht="52.8" spans="1:10">
+      <c r="A4" s="34">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="36" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" ht="26.4" spans="1:10">
-      <c r="A5" s="8">
+    <row r="5" ht="62.4" spans="1:10">
+      <c r="A5" s="34">
         <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="H5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="34"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" ht="26.4" spans="1:10">
-      <c r="A6" s="8">
+    <row r="6" ht="62.4" spans="1:10">
+      <c r="A6" s="34">
         <f>ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="F6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="34"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" ht="52.8" spans="1:10">
-      <c r="A7" s="8">
+    <row r="7" ht="46.8" spans="1:10">
+      <c r="A7" s="34">
         <f>ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" ht="92.4" spans="1:9">
+      <c r="A8" s="34">
+        <f t="shared" ref="A8:A13" si="0">ROW()-2</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="26" t="s">
+    </row>
+    <row r="9" ht="79.2" spans="1:9">
+      <c r="A9" s="34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="G9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="9" t="s">
+    </row>
+    <row r="10" ht="15.6" spans="1:9">
+      <c r="A10" s="34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="9"/>
+      <c r="C10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" ht="52.8" spans="1:9">
+      <c r="A11" s="34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="52.8" spans="1:9">
+      <c r="A12" s="34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="62.4" spans="1:9">
+      <c r="A13" s="34">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E7">
     <extLst/>
   </autoFilter>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
-      <formula1>"iter1, iter2, iter3, iter4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7">
-      <formula1>"To Do, Doing, Done, Updated"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H7">
-      <formula1>"iter2, iter3, iter4, iter5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I7">
-      <formula1>"none, iter2, iter3, iter4"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6 F7 F10 F11 F12 F13 F8:F9">
+      <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1788,7 +1961,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:H4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="5"/>
@@ -1807,150 +1980,150 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
+      <c r="A1" s="32" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="26.4" spans="1:9">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="39.6" spans="1:9">
-      <c r="A3" s="22">
+      <c r="G2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="46.8" spans="1:9">
+      <c r="A3" s="21">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>44</v>
+      <c r="B3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="78" spans="1:9">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="B4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="22"/>
+      <c r="H4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" ht="78" spans="1:9">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <f>ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="B5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="22"/>
+      <c r="H5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" ht="62.4" spans="1:9">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <f>ROW()-2</f>
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="22"/>
+      <c r="B6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1974,7 +2147,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:H5"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="7"/>
@@ -1993,210 +2166,210 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:9">
-      <c r="A1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" ht="26.4" spans="1:9">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="62.4" spans="1:9">
+      <c r="A3" s="21">
+        <f t="shared" ref="A3:A8" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="78" spans="1:9">
+      <c r="A4" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="31.2" spans="1:9">
+      <c r="A5" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" ht="62.4" spans="1:9">
+      <c r="A6" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="20" t="s">
+    </row>
+    <row r="7" ht="31.2" spans="1:9">
+      <c r="A7" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="78" spans="1:9">
+      <c r="A8" s="21">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="B8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="C8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="39.6" spans="1:9">
-      <c r="A3" s="22">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" ht="78" spans="1:9">
-      <c r="A4" s="22">
-        <f>ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" ht="31.2" spans="1:9">
-      <c r="A5" s="22">
-        <f>ROW()-2</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" ht="39.6" spans="1:9">
-      <c r="A6" s="22">
-        <f>ROW()-2</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" ht="31.2" spans="1:9">
-      <c r="A7" s="22">
-        <f>ROW()-2</f>
-        <v>5</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" ht="78" spans="1:9">
-      <c r="A8" s="22">
-        <f>ROW()-2</f>
-        <v>6</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2215,21 +2388,21 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="3.33333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1111111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.8888888888889" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.3333333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="6" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.66666666666667" style="2" customWidth="1"/>
@@ -2238,171 +2411,199 @@
     <col min="11" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+    <row r="1" ht="17.4" spans="1:9">
+      <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" ht="15.6" spans="1:9">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="26.4" spans="1:9">
-      <c r="A3" s="8">
-        <f>ROW()-5</f>
-        <v>-2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="G2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="31.2" spans="1:9">
+      <c r="A3" s="19">
+        <f t="shared" ref="A3:A8" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" ht="39.6" spans="1:9">
-      <c r="A4" s="8">
-        <f t="shared" ref="A4:A7" si="0">ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="D3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" ht="26.4" spans="1:9">
-      <c r="A5" s="8">
+      <c r="F3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" ht="46.8" spans="1:9">
+      <c r="A4" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="B4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" ht="39.6" spans="1:9">
-      <c r="A6" s="8">
+      <c r="C4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" ht="31.2" spans="1:9">
+      <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" ht="26.4" spans="1:9">
-      <c r="A7" s="8">
+      <c r="B5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" ht="46.8" spans="1:9">
+      <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" ht="31.2" spans="1:9">
+      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" ht="31.2" spans="1:9">
+      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 F8 F3:F4">
+      <formula1>"To Do, Doing, Done"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H3">
       <formula1>"Pending, Doing, Done"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 F3:F4">
-      <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2441,22 +2642,22 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2464,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
@@ -2479,13 +2680,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="26.4" spans="1:9">
@@ -2494,25 +2695,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -2522,35 +2723,35 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I7" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H7">
+      <formula1>"Pending, Doing, Done"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7">
       <formula1>"To Do, Doing, Done"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H7">
-      <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
